--- a/data/excel outputs/p-value analysis/p_values_SVM_vs_Logistic_Regression.xlsx
+++ b/data/excel outputs/p-value analysis/p_values_SVM_vs_Logistic_Regression.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,136 +607,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.380069232509859e-08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.179494705889457e-12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.051714912441394e-15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.948497759509332e-07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.654047736768143e-07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.832615081714739e-11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5303175914087934</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.01280702484980196</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0009819830293217565</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,136 +633,6 @@
         <is>
           <t>p_value</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6456208564932489</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1192517716083334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.004245826677922784</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.681494340304343</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.219098907292208</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.57285386549188e-06</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.329876800921125</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.007464733364674683</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.009398797225601696</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,146 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>No Finding</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Enlarged Cardiom.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Cardiomegaly</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Lung Lesion</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Lung Opacity</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Edema</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Consolidation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Atelectasis</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Pneumothorax</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Pleural Other</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Fracture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Support Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6.822772351199131e-35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
